--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3749.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3749.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.246906797453915</v>
+        <v>0.6618222594261169</v>
       </c>
       <c r="B1">
-        <v>2.54351675096753</v>
+        <v>1.32581102848053</v>
       </c>
       <c r="C1">
-        <v>4.537010494104731</v>
+        <v>4.058460235595703</v>
       </c>
       <c r="D1">
-        <v>3.101225529033121</v>
+        <v>1.761385798454285</v>
       </c>
       <c r="E1">
-        <v>1.154957903201848</v>
+        <v>0.485239565372467</v>
       </c>
     </row>
   </sheetData>
